--- a/report/Report_MW_FE.xlsx
+++ b/report/Report_MW_FE.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DCDD69-083C-4A2A-B6CF-BB0638A20032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59204DAA-3F8A-4730-8A37-BA02761C4C65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19260" yWindow="780" windowWidth="19320" windowHeight="15480" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" tabRatio="896" xr2:uid="{83F72AC4-B475-4A60-81FE-A957F55E1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Funzionalità 29.01" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funzionalità 29.01'!$A$8:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Funzionalità 29.01'!$A$8:$K$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">Overview    </t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Matrix_Web_Ricerca</t>
+  </si>
+  <si>
+    <t>Matrix_Web_Navigazioni_BackOffice</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -251,13 +254,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -269,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -335,12 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -357,13 +376,22 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -729,12 +757,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B233FB-1647-40A8-8E89-B7EEBA200B98}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D54" sqref="D54"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,23 +808,23 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="7">
-        <f>D14</f>
-        <v>13</v>
+        <f>D15</f>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
-        <f>E14</f>
+        <f>E15</f>
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <f>F14</f>
+        <f>F15</f>
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <f>G14</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="28">
-        <f>H14</f>
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <f>H15</f>
         <v>0</v>
       </c>
     </row>
@@ -860,7 +888,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -870,10 +898,10 @@
         <f t="shared" ref="C9" si="1">IF(G9&lt;&gt;"",IF(D9=E9,"OK","KO"),"")</f>
         <v>KO</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <v>2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>0</v>
       </c>
       <c r="F9" s="7">
@@ -904,7 +932,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="24">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -914,19 +942,19 @@
         <f t="shared" ref="C10" si="2">IF(G10&lt;&gt;"",IF(D10=E10,"OK","KO"),"")</f>
         <v>KO</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <v>3</v>
       </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
         <f>IF('Funzionalità 29.01'!D10-D10&lt;0, 0, 'Funzionalità 29.01'!D10-D10)</f>
         <v>0</v>
       </c>
@@ -948,29 +976,29 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
+      <c r="A11" s="24">
         <v>1</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f t="shared" ref="C11:C13" si="3">IF(G11&lt;&gt;"",IF(D11=E11,"OK","KO"),"")</f>
+        <f t="shared" ref="C11:C14" si="3">IF(G11&lt;&gt;"",IF(D11=E11,"OK","KO"),"")</f>
         <v>KO</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <v>5</v>
       </c>
-      <c r="E11" s="27">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
         <f>IF('Funzionalità 29.01'!D11-D11&lt;0, 0, 'Funzionalità 29.01'!D11-D11)</f>
         <v>0</v>
       </c>
@@ -992,29 +1020,29 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="24">
         <v>1</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="3"/>
         <v>KO</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
         <f>IF('Funzionalità 29.01'!D12-D12&lt;0, 0, 'Funzionalità 29.01'!D12-D12)</f>
         <v>0</v>
       </c>
@@ -1036,29 +1064,29 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="24">
         <v>1</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="3"/>
         <v>KO</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="27">
         <v>2</v>
       </c>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
         <f>IF('Funzionalità 29.01'!D13-D13&lt;0, 0, 'Funzionalità 29.01'!D13-D13)</f>
         <v>0</v>
       </c>
@@ -1079,57 +1107,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f t="shared" ref="C14" si="8">IF(G14&lt;&gt;"",IF(D14=E14,"OK","KO"),"")</f>
+        <v>KO</v>
+      </c>
+      <c r="D14" s="27">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <f>IF('Funzionalità 29.01'!D14-D14&lt;0, 0, 'Funzionalità 29.01'!D14-D14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <f t="shared" ref="I14" si="9">E14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" ref="J14" si="10">F14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" ref="K14" si="11">G14/D14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" ref="L14" si="12">H14/D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="24">
-        <f>SUM(D9:D13)</f>
-        <v>13</v>
-      </c>
-      <c r="E14" s="24">
-        <f>SUM(E9:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <f>SUM(F9:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <f>SUM(G9:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <f>IF('Funzionalità 29.01'!D14-D14&lt;0, 0, 'Funzionalità 29.01'!D14-D14)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <f>E14/D14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
-        <f>F14/D14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
-        <f>G14/D14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" ref="L14" si="8">H14/D14</f>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31">
+        <f>SUM(D9:D14)</f>
+        <v>19</v>
+      </c>
+      <c r="E15" s="31">
+        <f>SUM(E9:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <f>SUM(F9:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="31">
+        <f>SUM(G9:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <f>IF('Funzionalità 29.01'!D15-D15&lt;0, 0, 'Funzionalità 29.01'!D15-D15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <f>E15/D15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <f>F15/D15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <f>G15/D15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" ref="L15" si="13">H15/D15</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:K14" xr:uid="{13029FD2-A3CE-4376-A190-D94827FCCD95}"/>
+  <autoFilter ref="A8:K15" xr:uid="{13029FD2-A3CE-4376-A190-D94827FCCD95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B9:G9">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C9:C13">
+  <conditionalFormatting sqref="C9:C14">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"KO"</formula>
     </cfRule>
@@ -1146,21 +1218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4CC4A3791A662489B933DCE278ED9EF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d351c8bae9503a674d5e918810dcd44">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="181236b5-734f-48d7-9705-1caf32a498ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2248fde6c30a2cffba19c8b5d271a5ad" ns3:_="">
     <xsd:import namespace="181236b5-734f-48d7-9705-1caf32a498ff"/>
@@ -1338,10 +1395,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1363,19 +1445,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C945D8A9-5771-40CB-B9B4-CC69662F48BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68293338-B565-439A-94CC-EAFE4BA1AF8F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="181236b5-734f-48d7-9705-1caf32a498ff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>